--- a/01_Todays_Matches_final.xlsx
+++ b/01_Todays_Matches_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -40,40 +40,58 @@
     <t>New_Bet</t>
   </si>
   <si>
-    <t>Beijing Royal Fighters</t>
-  </si>
-  <si>
-    <t>Tianjin</t>
-  </si>
-  <si>
-    <t>Zhejiang Chouzhou</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>Ningbo Rockets</t>
-  </si>
-  <si>
-    <t>Liaoning</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Nanjing Tongxi</t>
+  </si>
+  <si>
+    <t>Shanxi Zhongyu</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Zhejiang Guangsha</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>Qingdao</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>OVER</t>
@@ -437,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +489,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -483,21 +501,21 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>212.5</v>
+        <v>192.5</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -509,21 +527,21 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>221.5</v>
+        <v>212.5</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -535,13 +553,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>207.5</v>
+        <v>218.5</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>199</v>
@@ -549,7 +567,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -561,21 +579,21 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>237.5</v>
+        <v>211.5</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -587,21 +605,21 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>226.5</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -613,16 +631,94 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7">
+        <v>225</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>217.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2025</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
         <v>222.5</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>226</v>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2025</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>236</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/01_Todays_Matches_final.xlsx
+++ b/01_Todays_Matches_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -46,52 +46,40 @@
     <t>Nanjing Tongxi</t>
   </si>
   <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
     <t>Shanxi Zhongyu</t>
   </si>
   <si>
-    <t>Xinjiang</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Zhejiang Guangsha</t>
-  </si>
-  <si>
-    <t>Guangdong</t>
-  </si>
-  <si>
-    <t>Guangzhou</t>
-  </si>
-  <si>
-    <t>Qingdao</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>OVER</t>
@@ -455,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +477,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -501,21 +489,21 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>192.5</v>
+        <v>200.5</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -527,21 +515,21 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>212.5</v>
+        <v>229.5</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>197</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -553,21 +541,21 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -579,21 +567,21 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>211.5</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -605,21 +593,21 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>230.5</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -631,21 +619,21 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7">
+        <v>228.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
         <v>225</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -657,68 +645,16 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>212.5</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="F8">
-        <v>217.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
       <c r="H8">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2025</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>222.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2025</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>236</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
